--- a/24_DS_CLUB_BATCH1_AHM/Attendance_new.xlsx
+++ b/24_DS_CLUB_BATCH1_AHM/Attendance_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\24_DS_CLUB_BATCH1_AHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1C621E-AAA3-4548-BF7B-3A042C344FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FD2FCC-297B-429E-B98B-ACF77FE4D4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14136" yWindow="0" windowWidth="8820" windowHeight="12360" xr2:uid="{1FF622FD-D8C9-422F-8436-9CCD6703699A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1FF622FD-D8C9-422F-8436-9CCD6703699A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="25">
   <si>
     <t>Agnivesh Patel</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D461A628-08A5-4F1C-BDF6-E1294AEC5259}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,7 +463,7 @@
     <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -488,8 +488,11 @@
       <c r="H1" s="1">
         <v>45802</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -514,8 +517,11 @@
       <c r="H2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -540,8 +546,11 @@
       <c r="H3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -566,8 +575,11 @@
       <c r="H4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -592,8 +604,11 @@
       <c r="H5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -618,8 +633,11 @@
       <c r="H6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -644,8 +662,11 @@
       <c r="H7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -670,8 +691,11 @@
       <c r="H8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -696,8 +720,11 @@
       <c r="H9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -722,8 +749,11 @@
       <c r="H10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -748,8 +778,11 @@
       <c r="H11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -769,13 +802,16 @@
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -800,8 +836,11 @@
       <c r="H13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -826,8 +865,11 @@
       <c r="H14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -852,8 +894,11 @@
       <c r="H15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -878,8 +923,11 @@
       <c r="H16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -904,8 +952,11 @@
       <c r="H17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -930,8 +981,11 @@
       <c r="H18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -956,8 +1010,11 @@
       <c r="H19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -982,8 +1039,11 @@
       <c r="H20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1008,8 +1068,11 @@
       <c r="H21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1026,6 +1089,9 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
         <v>21</v>
       </c>
     </row>

--- a/24_DS_CLUB_BATCH1_AHM/Attendance_new.xlsx
+++ b/24_DS_CLUB_BATCH1_AHM/Attendance_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\24_DS_CLUB_BATCH1_AHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FD2FCC-297B-429E-B98B-ACF77FE4D4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF61922-9223-4979-905C-D7028BD1DBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1FF622FD-D8C9-422F-8436-9CCD6703699A}"/>
+    <workbookView xWindow="6036" yWindow="0" windowWidth="16176" windowHeight="12360" xr2:uid="{1FF622FD-D8C9-422F-8436-9CCD6703699A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="25">
   <si>
     <t>Agnivesh Patel</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D461A628-08A5-4F1C-BDF6-E1294AEC5259}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,7 +463,7 @@
     <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -491,8 +491,11 @@
       <c r="I1" s="1">
         <v>45809</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -520,8 +523,11 @@
       <c r="I2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -549,8 +555,11 @@
       <c r="I3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -578,8 +587,11 @@
       <c r="I4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -607,8 +619,11 @@
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -636,8 +651,11 @@
       <c r="I6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -665,8 +683,11 @@
       <c r="I7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -694,8 +715,11 @@
       <c r="I8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -723,8 +747,11 @@
       <c r="I9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -752,8 +779,11 @@
       <c r="I10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -781,8 +811,11 @@
       <c r="I11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -810,8 +843,11 @@
       <c r="I12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -839,8 +875,11 @@
       <c r="I13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -868,8 +907,11 @@
       <c r="I14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -897,8 +939,11 @@
       <c r="I15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -926,8 +971,11 @@
       <c r="I16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -955,8 +1003,11 @@
       <c r="I17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -984,8 +1035,11 @@
       <c r="I18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1013,8 +1067,11 @@
       <c r="I19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1042,8 +1099,11 @@
       <c r="I20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1071,8 +1131,11 @@
       <c r="I21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1092,6 +1155,9 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
         <v>21</v>
       </c>
     </row>

--- a/24_DS_CLUB_BATCH1_AHM/Attendance_new.xlsx
+++ b/24_DS_CLUB_BATCH1_AHM/Attendance_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\24_DS_CLUB_BATCH1_AHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF61922-9223-4979-905C-D7028BD1DBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C656D0F-E1A3-4BEA-99E1-377326B129D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6036" yWindow="0" windowWidth="16176" windowHeight="12360" xr2:uid="{1FF622FD-D8C9-422F-8436-9CCD6703699A}"/>
+    <workbookView xWindow="144" yWindow="0" windowWidth="16788" windowHeight="12360" xr2:uid="{1FF622FD-D8C9-422F-8436-9CCD6703699A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="25">
   <si>
     <t>Agnivesh Patel</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D461A628-08A5-4F1C-BDF6-E1294AEC5259}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,7 +463,7 @@
     <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -494,8 +494,11 @@
       <c r="J1" s="1">
         <v>45823</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="1">
+        <v>45830</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -526,8 +529,11 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -558,8 +564,11 @@
       <c r="J3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -590,8 +599,11 @@
       <c r="J4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -622,8 +634,11 @@
       <c r="J5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -654,8 +669,11 @@
       <c r="J6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -686,8 +704,11 @@
       <c r="J7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -718,8 +739,11 @@
       <c r="J8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -750,8 +774,11 @@
       <c r="J9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -782,8 +809,11 @@
       <c r="J10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -814,8 +844,11 @@
       <c r="J11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -846,8 +879,11 @@
       <c r="J12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -878,8 +914,11 @@
       <c r="J13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -910,8 +949,11 @@
       <c r="J14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -942,8 +984,11 @@
       <c r="J15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -974,8 +1019,11 @@
       <c r="J16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1006,8 +1054,11 @@
       <c r="J17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1038,8 +1089,11 @@
       <c r="J18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1070,8 +1124,11 @@
       <c r="J19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1102,8 +1159,11 @@
       <c r="J20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1134,8 +1194,11 @@
       <c r="J21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1158,6 +1221,9 @@
         <v>21</v>
       </c>
       <c r="J22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
         <v>21</v>
       </c>
     </row>

--- a/24_DS_CLUB_BATCH1_AHM/Attendance_new.xlsx
+++ b/24_DS_CLUB_BATCH1_AHM/Attendance_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\all_batches\24_DS_CLUB_BATCH1_AHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C656D0F-E1A3-4BEA-99E1-377326B129D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80098C6B-57DE-4AE4-A9B4-789E41173E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="0" windowWidth="16788" windowHeight="12360" xr2:uid="{1FF622FD-D8C9-422F-8436-9CCD6703699A}"/>
+    <workbookView xWindow="156" yWindow="0" windowWidth="17280" windowHeight="12360" xr2:uid="{1FF622FD-D8C9-422F-8436-9CCD6703699A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="25">
   <si>
     <t>Agnivesh Patel</t>
   </si>
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D461A628-08A5-4F1C-BDF6-E1294AEC5259}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,7 +463,7 @@
     <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -497,8 +497,14 @@
       <c r="K1" s="1">
         <v>45830</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1">
+        <v>45836</v>
+      </c>
+      <c r="M1" s="1">
+        <v>45837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -532,8 +538,14 @@
       <c r="K2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -567,8 +579,14 @@
       <c r="K3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -602,8 +620,14 @@
       <c r="K4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -637,8 +661,14 @@
       <c r="K5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -672,8 +702,14 @@
       <c r="K6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -707,8 +743,14 @@
       <c r="K7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -742,8 +784,14 @@
       <c r="K8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -777,8 +825,14 @@
       <c r="K9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -812,8 +866,14 @@
       <c r="K10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -847,8 +907,14 @@
       <c r="K11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -882,8 +948,14 @@
       <c r="K12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -917,8 +989,14 @@
       <c r="K13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -952,8 +1030,14 @@
       <c r="K14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -987,8 +1071,14 @@
       <c r="K15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1022,8 +1112,14 @@
       <c r="K16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1057,8 +1153,14 @@
       <c r="K17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1092,8 +1194,14 @@
       <c r="K18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1127,8 +1235,14 @@
       <c r="K19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1162,8 +1276,14 @@
       <c r="K20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1197,8 +1317,14 @@
       <c r="K21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1224,6 +1350,12 @@
         <v>21</v>
       </c>
       <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
         <v>21</v>
       </c>
     </row>
